--- a/biology/Médecine/Caspar_Bartholin_le_Jeune/Caspar_Bartholin_le_Jeune.xlsx
+++ b/biology/Médecine/Caspar_Bartholin_le_Jeune/Caspar_Bartholin_le_Jeune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caspar Bartholin le Jeune (10 septembre 1655 à Copenhague - 11 juin 1738), est un anatomiste danois qui aurait été le premier à décrire, dans l'appareil génital féminin, les glande vestibulaire principale dites « glandes de Bartholin » au XVIIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est issu d'une famille éminente. Il est le petit-fils du théologien et anatomiste Caspar Bartholin (« le Vieux ») et le fils de Thomas Bartholin. Son oncle est Rasmus Bartholin et son frère, un historien, est prénommé Thomas, comme son père.
 La description des glandes vestibulaires, autrefois dites « de Bartholin » est parfois attribuée à tort à son grand-père.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De tibiis veterum et earum antiquo usu sur Google Livres. Rome: B. Carrara, 1677 (Bartholin a aussi écrit sur la musique)
 De ovariis mulierum et generationis historia epistola anatomica sur Google Livres. Amsterdam: J. H. Wetstein, 1678</t>
